--- a/Python01/write.xlsx
+++ b/Python01/write.xlsx
@@ -15,7 +15,143 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>1*1=1</t>
+  </si>
+  <si>
+    <t>2*1=2</t>
+  </si>
+  <si>
+    <t>2*2=4</t>
+  </si>
+  <si>
+    <t>3*1=3</t>
+  </si>
+  <si>
+    <t>3*2=6</t>
+  </si>
+  <si>
+    <t>3*3=9</t>
+  </si>
+  <si>
+    <t>4*1=4</t>
+  </si>
+  <si>
+    <t>4*2=8</t>
+  </si>
+  <si>
+    <t>4*3=12</t>
+  </si>
+  <si>
+    <t>4*4=16</t>
+  </si>
+  <si>
+    <t>5*1=5</t>
+  </si>
+  <si>
+    <t>5*2=10</t>
+  </si>
+  <si>
+    <t>5*3=15</t>
+  </si>
+  <si>
+    <t>5*4=20</t>
+  </si>
+  <si>
+    <t>5*5=25</t>
+  </si>
+  <si>
+    <t>6*1=6</t>
+  </si>
+  <si>
+    <t>6*2=12</t>
+  </si>
+  <si>
+    <t>6*3=18</t>
+  </si>
+  <si>
+    <t>6*4=24</t>
+  </si>
+  <si>
+    <t>6*5=30</t>
+  </si>
+  <si>
+    <t>6*6=36</t>
+  </si>
+  <si>
+    <t>7*1=7</t>
+  </si>
+  <si>
+    <t>7*2=14</t>
+  </si>
+  <si>
+    <t>7*3=21</t>
+  </si>
+  <si>
+    <t>7*4=28</t>
+  </si>
+  <si>
+    <t>7*5=35</t>
+  </si>
+  <si>
+    <t>7*6=42</t>
+  </si>
+  <si>
+    <t>7*7=49</t>
+  </si>
+  <si>
+    <t>8*1=8</t>
+  </si>
+  <si>
+    <t>8*2=16</t>
+  </si>
+  <si>
+    <t>8*3=24</t>
+  </si>
+  <si>
+    <t>8*4=32</t>
+  </si>
+  <si>
+    <t>8*5=40</t>
+  </si>
+  <si>
+    <t>8*6=48</t>
+  </si>
+  <si>
+    <t>8*7=56</t>
+  </si>
+  <si>
+    <t>8*8=64</t>
+  </si>
+  <si>
+    <t>9*1=9</t>
+  </si>
+  <si>
+    <t>9*2=18</t>
+  </si>
+  <si>
+    <t>9*3=27</t>
+  </si>
+  <si>
+    <t>9*4=36</t>
+  </si>
+  <si>
+    <t>9*5=45</t>
+  </si>
+  <si>
+    <t>9*6=54</t>
+  </si>
+  <si>
+    <t>9*7=63</t>
+  </si>
+  <si>
+    <t>9*8=72</t>
+  </si>
+  <si>
+    <t>9*9=81</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,264 +521,156 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="n">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="n">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="n">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="n">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="n">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="n">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="n">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="n">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="n">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="n">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="n">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>15</v>
-      </c>
-      <c r="F3" t="n">
-        <v>18</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="n">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="n">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24</v>
-      </c>
-      <c r="G4" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="n">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="n">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30</v>
-      </c>
-      <c r="G5" t="n">
-        <v>35</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="n">
-        <v>48</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14</v>
-      </c>
-      <c r="C7" t="n">
-        <v>21</v>
-      </c>
-      <c r="D7" t="n">
-        <v>28</v>
-      </c>
-      <c r="E7" t="n">
-        <v>35</v>
-      </c>
-      <c r="F7" t="n">
-        <v>42</v>
-      </c>
-      <c r="G7" t="n">
-        <v>49</v>
-      </c>
-      <c r="H7" t="n">
-        <v>56</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16</v>
-      </c>
-      <c r="C8" t="n">
-        <v>24</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32</v>
-      </c>
-      <c r="E8" t="n">
-        <v>40</v>
-      </c>
-      <c r="F8" t="n">
-        <v>48</v>
-      </c>
-      <c r="G8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H8" t="n">
-        <v>64</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>18</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>36</v>
-      </c>
-      <c r="E9" t="n">
-        <v>45</v>
-      </c>
-      <c r="F9" t="n">
-        <v>54</v>
-      </c>
-      <c r="G9" t="n">
-        <v>63</v>
-      </c>
-      <c r="H9" t="n">
-        <v>72</v>
-      </c>
-      <c r="I9" t="n">
-        <v>81</v>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
